--- a/3.xlsx
+++ b/3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Congress 90" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>x_dimension</t>
-  </si>
-  <si>
-    <t>alt_dimension</t>
-  </si>
-  <si>
     <t>JOHNSON</t>
   </si>
   <si>
@@ -2947,6 +2941,12 @@
   </si>
   <si>
     <t>BARRASSO</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -3266,8 +3266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C539"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,15 +3277,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>972</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>973</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>-0.33700000000000002</v>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0.17699999999999999</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0.39800000000000002</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>-0.03</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>-4.2000000000000003E-2</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>-7.2999999999999995E-2</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0.14599999999999999</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>-0.21299999999999999</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>-0.35799999999999998</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>9.5000000000000001E-2</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0.22500000000000001</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>-0.38700000000000001</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0.44700000000000001</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1.2E-2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>-0.23699999999999999</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>0.253</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>-0.32200000000000001</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>0.16</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>-0.439</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>-0.58199999999999996</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>-0.46800000000000003</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>-0.63400000000000001</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>0.11700000000000001</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>-0.51900000000000002</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>-0.42599999999999999</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>-0.59899999999999998</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>0.20499999999999999</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>0.29599999999999999</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>2.8000000000000001E-2</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>0.25</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>0.24299999999999999</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>-0.505</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>-0.46800000000000003</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>-0.38800000000000001</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>-0.46800000000000003</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>0.11899999999999999</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>-0.46700000000000003</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>0.42099999999999999</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>-0.51700000000000002</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>-0.53</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>0.48299999999999998</v>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0.35799999999999998</v>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>0.35899999999999999</v>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>-0.48399999999999999</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>0.23400000000000001</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>0.183</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>-0.50600000000000001</v>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>-0.61</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>-0.39</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>0.27600000000000002</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>0.17299999999999999</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>-0.34699999999999998</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>0.48399999999999999</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>0.26400000000000001</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>-0.40100000000000002</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>-0.311</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>-0.28000000000000003</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>0.157</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>-0.33100000000000002</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>-0.315</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>-0.36099999999999999</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>-0.41699999999999998</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>-0.318</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>-0.313</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>-0.22800000000000001</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>0.159</v>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>0.27200000000000002</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>-0.128</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>-0.17299999999999999</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>-8.7999999999999995E-2</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>-7.0000000000000001E-3</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>0.30599999999999999</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>-0.23300000000000001</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>9.8000000000000004E-2</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>0.218</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>-8.5000000000000006E-2</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>0.24099999999999999</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>-0.42199999999999999</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>-0.4</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>-7.6999999999999999E-2</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>2.3E-2</v>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>-7.2999999999999995E-2</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>0.38600000000000001</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>0.189</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>-0.19500000000000001</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>-0.114</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>-0.13400000000000001</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>-0.19400000000000001</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>-0.51300000000000001</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>-0.379</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>0.49199999999999999</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>0.621</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>-0.52700000000000002</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>-0.51100000000000001</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>-0.42</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>0.34200000000000003</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>-0.38200000000000001</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>-0.505</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>-0.39800000000000002</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>-0.39</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>-0.49399999999999999</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>0.378</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>-0.28100000000000003</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>0.25600000000000001</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>0.36899999999999999</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>0.315</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>0.36099999999999999</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>0.183</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>0.30099999999999999</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>0.372</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>0.10299999999999999</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>0.246</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>-0.36399999999999999</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>0.185</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>-0.28399999999999997</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>-0.42899999999999999</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>-0.42199999999999999</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>0.27200000000000002</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>-0.46200000000000002</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>0.26700000000000002</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>-0.23300000000000001</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>0.23499999999999999</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>0.23599999999999999</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>0.28499999999999998</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>-0.17100000000000001</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>0.315</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>-7.0000000000000007E-2</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>0.17299999999999999</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>-0.41</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>0.95499999999999996</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>0.316</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>-0.313</v>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>0.307</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>0.36199999999999999</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>0.32200000000000001</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>0.17399999999999999</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B139">
         <v>0.247</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B140">
         <v>0.17499999999999999</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B141">
         <v>0.189</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>-0.247</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>-0.28799999999999998</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B144">
         <v>0.2</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B145">
         <v>0.26</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B146">
         <v>0.08</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B147">
         <v>-0.20599999999999999</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>-0.34300000000000003</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B149">
         <v>-7.9000000000000001E-2</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B150">
         <v>-0.34799999999999998</v>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B151">
         <v>-0.2</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B152">
         <v>1.4999999999999999E-2</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B153">
         <v>-5.6000000000000001E-2</v>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B154">
         <v>0.33300000000000002</v>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B155">
         <v>-0.23200000000000001</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B156">
         <v>-2.5000000000000001E-2</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B157">
         <v>-0.36</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B158">
         <v>-0.46500000000000002</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B159">
         <v>0.21299999999999999</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B160">
         <v>-0.27400000000000002</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B161">
         <v>-0.307</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B162">
         <v>-0.17100000000000001</v>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B163">
         <v>-0.32700000000000001</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B164">
         <v>-3.3000000000000002E-2</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B165">
         <v>-0.36799999999999999</v>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B166">
         <v>-2.8000000000000001E-2</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B167">
         <v>-2.3E-2</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B168">
         <v>-0.30599999999999999</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B169">
         <v>-0.23799999999999999</v>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B170">
         <v>-0.29599999999999999</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B171">
         <v>4.2999999999999997E-2</v>
@@ -5155,7 +5155,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B172">
         <v>0.19600000000000001</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B173">
         <v>-0.308</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B174">
         <v>-0.40200000000000002</v>
@@ -5188,7 +5188,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B175">
         <v>-7.0000000000000001E-3</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B176">
         <v>-0.4</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B177">
         <v>0.14799999999999999</v>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B178">
         <v>-0.66</v>
@@ -5232,7 +5232,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B179">
         <v>0.13400000000000001</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B180">
         <v>0.30199999999999999</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B181">
         <v>0.44400000000000001</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B182">
         <v>0.28100000000000003</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B183">
         <v>0.247</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B184">
         <v>-7.4999999999999997E-2</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B185">
         <v>0.2</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B186">
         <v>0.247</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B187">
         <v>0.27</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B188">
         <v>0.16900000000000001</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B189">
         <v>-0.45</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B190">
         <v>-0.53900000000000003</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B191">
         <v>-0.42699999999999999</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B192">
         <v>-0.51600000000000001</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B193">
         <v>-0.44800000000000001</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B194">
         <v>-0.34399999999999997</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B195">
         <v>0.22700000000000001</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B196">
         <v>0.157</v>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B197">
         <v>0.189</v>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B198">
         <v>0.26800000000000002</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B199">
         <v>0.27200000000000002</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B200">
         <v>-0.38600000000000001</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B201">
         <v>-0.46899999999999997</v>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B202">
         <v>0.17899999999999999</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B203">
         <v>0.29799999999999999</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B204">
         <v>-0.48</v>
@@ -5518,7 +5518,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B205">
         <v>5.1999999999999998E-2</v>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B206">
         <v>-0.161</v>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B207">
         <v>0.127</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B208">
         <v>-6.6000000000000003E-2</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B209">
         <v>1.7000000000000001E-2</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B210">
         <v>5.1999999999999998E-2</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B211">
         <v>-0.48899999999999999</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B212">
         <v>0.51500000000000001</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B213">
         <v>-0.38600000000000001</v>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B214">
         <v>-0.184</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B215">
         <v>-0.504</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B216">
         <v>-0.112</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B217">
         <v>0.79600000000000004</v>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B218">
         <v>1E-3</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B219">
         <v>-0.33200000000000002</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B220">
         <v>-0.128</v>
@@ -5694,7 +5694,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B221">
         <v>-0.497</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B222">
         <v>0.23499999999999999</v>
@@ -5716,7 +5716,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B223">
         <v>0.36399999999999999</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B224">
         <v>0.215</v>
@@ -5738,7 +5738,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B225">
         <v>0.33</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B226">
         <v>-5.6000000000000001E-2</v>
@@ -5760,7 +5760,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B227">
         <v>0.23599999999999999</v>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B228">
         <v>0.218</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B229">
         <v>0.27200000000000002</v>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B230">
         <v>0.13900000000000001</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B231">
         <v>-0.43099999999999999</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B232">
         <v>-0.51100000000000001</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B233">
         <v>0.17199999999999999</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B234">
         <v>0.09</v>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B235">
         <v>0.125</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B236">
         <v>-0.29799999999999999</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B237">
         <v>-0.48399999999999999</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B238">
         <v>-0.435</v>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B239">
         <v>-0.29899999999999999</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B240">
         <v>7.0999999999999994E-2</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B241">
         <v>-0.44</v>
@@ -5925,7 +5925,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B242">
         <v>-0.38600000000000001</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B243">
         <v>-0.42399999999999999</v>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B244">
         <v>-0.22700000000000001</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B245">
         <v>-0.21099999999999999</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B246">
         <v>-0.16200000000000001</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B247">
         <v>0.25</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B248">
         <v>-0.26400000000000001</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B249">
         <v>0.27700000000000002</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B250">
         <v>-0.39600000000000002</v>
@@ -6024,7 +6024,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B251">
         <v>-9.4E-2</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B252">
         <v>-0.40200000000000002</v>
@@ -6046,7 +6046,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B253">
         <v>-0.56200000000000006</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B254">
         <v>-0.30299999999999999</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B255">
         <v>-0.45700000000000002</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B256">
         <v>-0.42299999999999999</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B257">
         <v>-0.35699999999999998</v>
@@ -6101,7 +6101,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B258">
         <v>-0.55800000000000005</v>
@@ -6112,7 +6112,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B259">
         <v>-0.46899999999999997</v>
@@ -6123,7 +6123,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B260">
         <v>-0.38400000000000001</v>
@@ -6134,7 +6134,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B261">
         <v>-0.35099999999999998</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B262">
         <v>-0.40600000000000003</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B263">
         <v>-7.0000000000000007E-2</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B264">
         <v>-0.55900000000000005</v>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B265">
         <v>-0.61899999999999999</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B266">
         <v>-0.47799999999999998</v>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B267">
         <v>-0.48599999999999999</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B268">
         <v>-0.50900000000000001</v>
@@ -6222,7 +6222,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B269">
         <v>4.8000000000000001E-2</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B270">
         <v>-0.39100000000000001</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B271">
         <v>-6.8000000000000005E-2</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B272">
         <v>-0.56200000000000006</v>
@@ -6266,7 +6266,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B273">
         <v>-0.52200000000000002</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B274">
         <v>-2.8000000000000001E-2</v>
@@ -6288,7 +6288,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B275">
         <v>0.32200000000000001</v>
@@ -6299,7 +6299,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B276">
         <v>0.23400000000000001</v>
@@ -6310,7 +6310,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B277">
         <v>0.14099999999999999</v>
@@ -6321,7 +6321,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B278">
         <v>0.26300000000000001</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B279">
         <v>-0.30599999999999999</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B280">
         <v>-0.13900000000000001</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B281">
         <v>-4.0000000000000001E-3</v>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B282">
         <v>0.371</v>
@@ -6376,7 +6376,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B283">
         <v>0.253</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B284">
         <v>-0.28599999999999998</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B285">
         <v>0.23</v>
@@ -6409,7 +6409,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B286">
         <v>-0.25</v>
@@ -6420,7 +6420,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B287">
         <v>-0.25900000000000001</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B288">
         <v>-4.1000000000000002E-2</v>
@@ -6442,7 +6442,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B289">
         <v>-0.108</v>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B290">
         <v>0.32600000000000001</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B291">
         <v>-0.15</v>
@@ -6475,7 +6475,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B292">
         <v>-6.7000000000000004E-2</v>
@@ -6486,7 +6486,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B293">
         <v>4.8000000000000001E-2</v>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B294">
         <v>0.30399999999999999</v>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B295">
         <v>0.26900000000000002</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B296">
         <v>-2.8000000000000001E-2</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B297">
         <v>-6.9000000000000006E-2</v>
@@ -6541,7 +6541,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B298">
         <v>8.6999999999999994E-2</v>
@@ -6552,7 +6552,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B299">
         <v>0.26</v>
@@ -6563,7 +6563,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B300">
         <v>0.27800000000000002</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B301">
         <v>0.40300000000000002</v>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B302">
         <v>-0.13900000000000001</v>
@@ -6596,7 +6596,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B303">
         <v>0.28699999999999998</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B304">
         <v>0.39100000000000001</v>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B305">
         <v>0.188</v>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B306">
         <v>0.3</v>
@@ -6640,7 +6640,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B307">
         <v>0.35899999999999999</v>
@@ -6651,7 +6651,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B308">
         <v>-0.35</v>
@@ -6662,7 +6662,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B309">
         <v>0.41599999999999998</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B310">
         <v>0.13500000000000001</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B311">
         <v>0.502</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B312">
         <v>0.17699999999999999</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B313">
         <v>0.13900000000000001</v>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B314">
         <v>0.23</v>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B315">
         <v>0.373</v>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B316">
         <v>0.61199999999999999</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B317">
         <v>-0.30399999999999999</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B318">
         <v>-0.38</v>
@@ -6772,7 +6772,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B319">
         <v>-0.3</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B320">
         <v>-0.36599999999999999</v>
@@ -6794,7 +6794,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B321">
         <v>0.22800000000000001</v>
@@ -6805,7 +6805,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B322">
         <v>0.312</v>
@@ -6816,7 +6816,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B323">
         <v>0.45900000000000002</v>
@@ -6827,7 +6827,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B324">
         <v>0.27500000000000002</v>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B325">
         <v>-0.34</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B326">
         <v>-0.39200000000000002</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B327">
         <v>-0.27900000000000003</v>
@@ -6871,7 +6871,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B328">
         <v>-1.7000000000000001E-2</v>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B329">
         <v>0.218</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B330">
         <v>0.10299999999999999</v>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B331">
         <v>-0.36699999999999999</v>
@@ -6915,7 +6915,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B332">
         <v>-0.24299999999999999</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B333">
         <v>0.28199999999999997</v>
@@ -6937,7 +6937,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B334">
         <v>-0.46899999999999997</v>
@@ -6948,7 +6948,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B335">
         <v>-0.53600000000000003</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B336">
         <v>-0.435</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B337">
         <v>-0.443</v>
@@ -6981,7 +6981,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B338">
         <v>-0.41499999999999998</v>
@@ -6992,7 +6992,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B339">
         <v>-0.36899999999999999</v>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B340">
         <v>0.19700000000000001</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B341">
         <v>3.5000000000000003E-2</v>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B342">
         <v>0.28499999999999998</v>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B343">
         <v>9.2999999999999999E-2</v>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B344">
         <v>-0.377</v>
@@ -7058,7 +7058,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B345">
         <v>0.191</v>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B346">
         <v>2.9000000000000001E-2</v>
@@ -7080,7 +7080,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B347">
         <v>-0.41599999999999998</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B348">
         <v>-0.35</v>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B349">
         <v>0.27600000000000002</v>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B350">
         <v>0.38900000000000001</v>
@@ -7124,7 +7124,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B351">
         <v>7.0999999999999994E-2</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B352">
         <v>0.45500000000000002</v>
@@ -7146,7 +7146,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B353">
         <v>-0.47899999999999998</v>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B354">
         <v>-0.38400000000000001</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B355">
         <v>0.13300000000000001</v>
@@ -7179,7 +7179,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B356">
         <v>0.19700000000000001</v>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B357">
         <v>-0.311</v>
@@ -7201,7 +7201,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B358">
         <v>-0.29199999999999998</v>
@@ -7212,7 +7212,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B359">
         <v>-0.39600000000000002</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B360">
         <v>1.2E-2</v>
@@ -7234,7 +7234,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B361">
         <v>-0.35499999999999998</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B362">
         <v>-0.39400000000000002</v>
@@ -7256,7 +7256,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B363">
         <v>-8.8999999999999996E-2</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B364">
         <v>0.24099999999999999</v>
@@ -7278,7 +7278,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B365">
         <v>-1.7000000000000001E-2</v>
@@ -7289,7 +7289,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B366">
         <v>6.6000000000000003E-2</v>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B367">
         <v>-0.122</v>
@@ -7311,7 +7311,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B368">
         <v>-0.05</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B369">
         <v>0.16</v>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B370">
         <v>0.32500000000000001</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B371">
         <v>0.246</v>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B372">
         <v>0.19400000000000001</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B373">
         <v>0.34499999999999997</v>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B374">
         <v>-0.34300000000000003</v>
@@ -7388,7 +7388,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B375">
         <v>-0.33200000000000002</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B376">
         <v>-0.35599999999999998</v>
@@ -7410,7 +7410,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B377">
         <v>-0.27900000000000003</v>
@@ -7421,7 +7421,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B378">
         <v>-0.214</v>
@@ -7432,7 +7432,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B379">
         <v>0.246</v>
@@ -7443,7 +7443,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B380">
         <v>-0.39600000000000002</v>
@@ -7454,7 +7454,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B381">
         <v>8.5999999999999993E-2</v>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B382">
         <v>2.7E-2</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B383">
         <v>0.67900000000000005</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B384">
         <v>-0.13100000000000001</v>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B385">
         <v>-0.19500000000000001</v>
@@ -7509,7 +7509,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B386">
         <v>-0.10199999999999999</v>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B387">
         <v>0.19600000000000001</v>
@@ -7531,7 +7531,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B388">
         <v>-0.54700000000000004</v>
@@ -7542,7 +7542,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B389">
         <v>-0.40699999999999997</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B390">
         <v>-0.218</v>
@@ -7564,7 +7564,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B391">
         <v>-8.2000000000000003E-2</v>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B392">
         <v>-0.38300000000000001</v>
@@ -7586,7 +7586,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B393">
         <v>-0.25700000000000001</v>
@@ -7597,7 +7597,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B394">
         <v>-0.34200000000000003</v>
@@ -7608,7 +7608,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B395">
         <v>-0.255</v>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B396">
         <v>-0.13700000000000001</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B397">
         <v>2E-3</v>
@@ -7641,7 +7641,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B398">
         <v>0.30399999999999999</v>
@@ -7652,7 +7652,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B399">
         <v>-0.16800000000000001</v>
@@ -7663,7 +7663,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B400">
         <v>-0.53800000000000003</v>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B401">
         <v>3.7999999999999999E-2</v>
@@ -7685,7 +7685,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B402">
         <v>-9.8000000000000004E-2</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B403">
         <v>-0.219</v>
@@ -7707,7 +7707,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B404">
         <v>0.17899999999999999</v>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B405">
         <v>0.22800000000000001</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B406">
         <v>5.5E-2</v>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B407">
         <v>-6.5000000000000002E-2</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B408">
         <v>-0.152</v>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B409">
         <v>0.26500000000000001</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B410">
         <v>0.09</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B411">
         <v>0.16600000000000001</v>
@@ -7795,7 +7795,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B412">
         <v>0.26500000000000001</v>
@@ -7806,7 +7806,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B413">
         <v>0.10100000000000001</v>
@@ -7817,7 +7817,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B414">
         <v>0.42199999999999999</v>
@@ -7828,7 +7828,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B415">
         <v>0.14599999999999999</v>
@@ -7839,7 +7839,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B416">
         <v>0.159</v>
@@ -7850,7 +7850,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B417">
         <v>0.187</v>
@@ -7861,7 +7861,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B418">
         <v>-0.45300000000000001</v>
@@ -7872,7 +7872,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B419">
         <v>-0.39400000000000002</v>
@@ -7883,7 +7883,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B420">
         <v>0.17299999999999999</v>
@@ -7894,7 +7894,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B421">
         <v>-0.35399999999999998</v>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B422">
         <v>-0.41399999999999998</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B423">
         <v>-0.39600000000000002</v>
@@ -7927,7 +7927,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B424">
         <v>0.14000000000000001</v>
@@ -7938,7 +7938,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B425">
         <v>-0.34499999999999997</v>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B426">
         <v>-0.28100000000000003</v>
@@ -7960,7 +7960,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B427">
         <v>-0.31</v>
@@ -7971,7 +7971,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B428">
         <v>-0.36499999999999999</v>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B429">
         <v>0.38600000000000001</v>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B430">
         <v>-0.51400000000000001</v>
@@ -8004,7 +8004,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B431">
         <v>0.23300000000000001</v>
@@ -8015,7 +8015,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B432">
         <v>-0.35499999999999998</v>
@@ -8026,7 +8026,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B433">
         <v>-0.48099999999999998</v>
@@ -8037,7 +8037,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B434">
         <v>0.33600000000000002</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B435">
         <v>0.41599999999999998</v>
@@ -8059,7 +8059,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B436">
         <v>0.32800000000000001</v>
@@ -8070,7 +8070,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B437">
         <v>0.433</v>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B438">
         <v>6.7000000000000004E-2</v>
@@ -8092,7 +8092,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B439">
         <v>0.26900000000000002</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B440">
         <v>-0.20399999999999999</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B441">
         <v>-0.26500000000000001</v>
@@ -8125,7 +8125,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B442">
         <v>-0.68899999999999995</v>
@@ -8136,7 +8136,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B443">
         <v>-0.495</v>
@@ -8147,7 +8147,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B444">
         <v>-0.221</v>
@@ -8158,7 +8158,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B445">
         <v>0.51200000000000001</v>
@@ -8169,7 +8169,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B446">
         <v>-0.38</v>
@@ -8180,7 +8180,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B447">
         <v>1.7000000000000001E-2</v>
@@ -8191,7 +8191,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B448">
         <v>9.8000000000000004E-2</v>
@@ -8202,7 +8202,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B449">
         <v>0.34100000000000003</v>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B450">
         <v>0.36899999999999999</v>
@@ -8224,7 +8224,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B451">
         <v>0.308</v>
@@ -8235,7 +8235,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B452">
         <v>-0.216</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B453">
         <v>-0.313</v>
@@ -8257,7 +8257,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B454">
         <v>0.21</v>
@@ -8268,7 +8268,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B455">
         <v>0.60299999999999998</v>
@@ -8279,7 +8279,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B456">
         <v>-0.14299999999999999</v>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B457">
         <v>8.9999999999999993E-3</v>
@@ -8301,7 +8301,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B458">
         <v>5.0000000000000001E-3</v>
@@ -8312,7 +8312,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B459">
         <v>-9.0999999999999998E-2</v>
@@ -8323,7 +8323,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B460">
         <v>0.16500000000000001</v>
@@ -8334,7 +8334,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B461">
         <v>-0.31900000000000001</v>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B462">
         <v>-0.38400000000000001</v>
@@ -8356,7 +8356,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B463">
         <v>0.373</v>
@@ -8367,7 +8367,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B464">
         <v>0.317</v>
@@ -8378,7 +8378,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B465">
         <v>9.9000000000000005E-2</v>
@@ -8389,7 +8389,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B466">
         <v>-0.42</v>
@@ -8400,7 +8400,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B467">
         <v>-0.40799999999999997</v>
@@ -8411,7 +8411,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B468">
         <v>0.32600000000000001</v>
@@ -8422,7 +8422,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B469">
         <v>0.372</v>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B470">
         <v>0.23200000000000001</v>
@@ -8444,7 +8444,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B471">
         <v>0.13400000000000001</v>
@@ -8455,7 +8455,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B472">
         <v>7.0000000000000007E-2</v>
@@ -8466,7 +8466,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B473">
         <v>0.2</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B474">
         <v>-8.8999999999999996E-2</v>
@@ -8488,7 +8488,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B475">
         <v>-0.18</v>
@@ -8499,7 +8499,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B476">
         <v>-0.379</v>
@@ -8510,7 +8510,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B477">
         <v>0.1</v>
@@ -8521,7 +8521,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B478">
         <v>-0.251</v>
@@ -8532,7 +8532,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B479">
         <v>-0.36</v>
@@ -8543,7 +8543,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B480">
         <v>-0.1</v>
@@ -8554,7 +8554,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B481">
         <v>-0.443</v>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B482">
         <v>0.32700000000000001</v>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B483">
         <v>-0.47499999999999998</v>
@@ -8587,7 +8587,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B484">
         <v>-0.439</v>
@@ -8598,7 +8598,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B485">
         <v>-0.433</v>
@@ -8609,7 +8609,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B486">
         <v>-5.6000000000000001E-2</v>
@@ -8620,7 +8620,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B487">
         <v>2.4E-2</v>
@@ -8631,7 +8631,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B488">
         <v>-0.31900000000000001</v>
@@ -8642,7 +8642,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B489">
         <v>-0.311</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B490">
         <v>-0.48299999999999998</v>
@@ -8664,7 +8664,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B491">
         <v>-0.439</v>
@@ -8675,7 +8675,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B492">
         <v>0.49199999999999999</v>
@@ -8686,7 +8686,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B493">
         <v>0.44600000000000001</v>
@@ -8697,7 +8697,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B494">
         <v>-0.2</v>
@@ -8708,7 +8708,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B495">
         <v>-0.21099999999999999</v>
@@ -8719,7 +8719,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B496">
         <v>-0.27900000000000003</v>
@@ -8730,7 +8730,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B497">
         <v>0.39500000000000002</v>
@@ -8741,7 +8741,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B498">
         <v>-0.108</v>
@@ -8752,7 +8752,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B499">
         <v>-0.34399999999999997</v>
@@ -8763,7 +8763,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B500">
         <v>-0.20100000000000001</v>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B501">
         <v>-0.26900000000000002</v>
@@ -8785,7 +8785,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B502">
         <v>-0.124</v>
@@ -8796,7 +8796,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B503">
         <v>-0.47199999999999998</v>
@@ -8807,7 +8807,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B504">
         <v>-9.2999999999999999E-2</v>
@@ -8818,7 +8818,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B505">
         <v>-4.1000000000000002E-2</v>
@@ -8829,7 +8829,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B506">
         <v>0.17199999999999999</v>
@@ -8840,7 +8840,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B507">
         <v>-0.371</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B508">
         <v>-0.35099999999999998</v>
@@ -8862,7 +8862,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B509">
         <v>0.21299999999999999</v>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B510">
         <v>-0.26400000000000001</v>
@@ -8884,7 +8884,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B511">
         <v>-0.4</v>
@@ -8895,7 +8895,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B512">
         <v>-0.85099999999999998</v>
@@ -8906,7 +8906,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B513">
         <v>5.6000000000000001E-2</v>
@@ -8917,7 +8917,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B514">
         <v>0.16200000000000001</v>
@@ -8928,7 +8928,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B515">
         <v>-0.57599999999999996</v>
@@ -8939,7 +8939,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B516">
         <v>-0.25600000000000001</v>
@@ -8950,7 +8950,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B517">
         <v>-0.33200000000000002</v>
@@ -8961,7 +8961,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B518">
         <v>-0.29299999999999998</v>
@@ -8972,7 +8972,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B519">
         <v>0.39100000000000001</v>
@@ -8983,7 +8983,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B520">
         <v>-0.57299999999999995</v>
@@ -8994,7 +8994,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B521">
         <v>0.27500000000000002</v>
@@ -9005,7 +9005,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B522">
         <v>0.28299999999999997</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B523">
         <v>-0.32800000000000001</v>
@@ -9027,7 +9027,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B524">
         <v>-0.41599999999999998</v>
@@ -9038,7 +9038,7 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B525">
         <v>0.44400000000000001</v>
@@ -9049,7 +9049,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B526">
         <v>0.44700000000000001</v>
@@ -9060,7 +9060,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B527">
         <v>-0.39600000000000002</v>
@@ -9071,7 +9071,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B528">
         <v>0.17</v>
@@ -9082,7 +9082,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B529">
         <v>6.2E-2</v>
@@ -9093,7 +9093,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B530">
         <v>-0.186</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B531">
         <v>9.1999999999999998E-2</v>
@@ -9115,7 +9115,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B532">
         <v>-0.32500000000000001</v>
@@ -9126,7 +9126,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B533">
         <v>-0.29599999999999999</v>
@@ -9137,7 +9137,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B534">
         <v>-0.247</v>
@@ -9148,7 +9148,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B535">
         <v>-0.309</v>
@@ -9159,7 +9159,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B536">
         <v>-0.59799999999999998</v>
@@ -9170,7 +9170,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B537">
         <v>-0.56699999999999995</v>
@@ -9181,7 +9181,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B538">
         <v>0.48899999999999999</v>
@@ -9192,7 +9192,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B539">
         <v>-0.24</v>
@@ -9210,8 +9210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C540"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9221,15 +9221,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>972</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>973</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B2">
         <v>0.53500000000000003</v>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B3">
         <v>0.36</v>
@@ -9251,7 +9251,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B4">
         <v>0.33300000000000002</v>
@@ -9262,7 +9262,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B5">
         <v>0.35799999999999998</v>
@@ -9273,7 +9273,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B6">
         <v>0.59299999999999997</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B7">
         <v>0.78800000000000003</v>
@@ -9295,7 +9295,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B8">
         <v>-0.40699999999999997</v>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B9">
         <v>0.27900000000000003</v>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B10">
         <v>-0.161</v>
@@ -9328,7 +9328,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B11">
         <v>0.32100000000000001</v>
@@ -9339,7 +9339,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B12">
         <v>-0.6</v>
@@ -9350,7 +9350,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B13">
         <v>0.60399999999999998</v>
@@ -9361,7 +9361,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B14">
         <v>0.67300000000000004</v>
@@ -9372,7 +9372,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B15">
         <v>0.64200000000000002</v>
@@ -9383,7 +9383,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B16">
         <v>-0.48399999999999999</v>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B17">
         <v>0.753</v>
@@ -9405,7 +9405,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B18">
         <v>-0.114</v>
@@ -9416,7 +9416,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B19">
         <v>0.35499999999999998</v>
@@ -9427,7 +9427,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B20">
         <v>0.46700000000000003</v>
@@ -9438,7 +9438,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B21">
         <v>0.32800000000000001</v>
@@ -9449,7 +9449,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B22">
         <v>0.52700000000000002</v>
@@ -9460,7 +9460,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B23">
         <v>0.56299999999999994</v>
@@ -9471,7 +9471,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B24">
         <v>-0.433</v>
@@ -9482,7 +9482,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B25">
         <v>-0.313</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B26">
         <v>0.753</v>
@@ -9504,7 +9504,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B27">
         <v>-0.39900000000000002</v>
@@ -9515,7 +9515,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B28">
         <v>-0.44400000000000001</v>
@@ -9526,7 +9526,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B29">
         <v>-0.221</v>
@@ -9537,7 +9537,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B30">
         <v>0.40699999999999997</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B31">
         <v>-0.25800000000000001</v>
@@ -9559,7 +9559,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B32">
         <v>0.31</v>
@@ -9570,7 +9570,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B33">
         <v>-0.49399999999999999</v>
@@ -9581,7 +9581,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B34">
         <v>-0.49399999999999999</v>
@@ -9592,7 +9592,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B35">
         <v>-0.68400000000000005</v>
@@ -9603,7 +9603,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B36">
         <v>-0.38900000000000001</v>
@@ -9614,7 +9614,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B37">
         <v>-0.36899999999999999</v>
@@ -9625,7 +9625,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B38">
         <v>-0.19900000000000001</v>
@@ -9636,7 +9636,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B39">
         <v>-0.52900000000000003</v>
@@ -9647,7 +9647,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B40">
         <v>-0.38500000000000001</v>
@@ -9658,7 +9658,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B41">
         <v>-0.40300000000000002</v>
@@ -9669,7 +9669,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B42">
         <v>-0.45500000000000002</v>
@@ -9680,7 +9680,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B43">
         <v>0.251</v>
@@ -9691,7 +9691,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B44">
         <v>0.44900000000000001</v>
@@ -9702,7 +9702,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B45">
         <v>0.45900000000000002</v>
@@ -9713,7 +9713,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B46">
         <v>-0.38900000000000001</v>
@@ -9724,7 +9724,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B47">
         <v>0.44500000000000001</v>
@@ -9735,7 +9735,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B48">
         <v>-0.27500000000000002</v>
@@ -9746,7 +9746,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B49">
         <v>-0.51200000000000001</v>
@@ -9757,7 +9757,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B50">
         <v>-0.34599999999999997</v>
@@ -9768,7 +9768,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B51">
         <v>-0.373</v>
@@ -9779,7 +9779,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B52">
         <v>-0.34599999999999997</v>
@@ -9790,7 +9790,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B53">
         <v>-0.26800000000000002</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B54">
         <v>-0.44800000000000001</v>
@@ -9812,7 +9812,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B55">
         <v>-0.32500000000000001</v>
@@ -9823,7 +9823,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B56">
         <v>-0.51300000000000001</v>
@@ -9834,7 +9834,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B57">
         <v>-0.372</v>
@@ -9845,7 +9845,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B58">
         <v>-0.23200000000000001</v>
@@ -9856,7 +9856,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B59">
         <v>-0.54900000000000004</v>
@@ -9867,7 +9867,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B60">
         <v>-0.50700000000000001</v>
@@ -9878,7 +9878,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B61">
         <v>0.66600000000000004</v>
@@ -9889,7 +9889,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B62">
         <v>-0.47299999999999998</v>
@@ -9900,7 +9900,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B63">
         <v>-0.47599999999999998</v>
@@ -9911,7 +9911,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B64">
         <v>0.34499999999999997</v>
@@ -9922,7 +9922,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B65">
         <v>-0.66300000000000003</v>
@@ -9933,7 +9933,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B66">
         <v>-0.39</v>
@@ -9944,7 +9944,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B67">
         <v>0.38900000000000001</v>
@@ -9955,7 +9955,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B68">
         <v>-0.36699999999999999</v>
@@ -9966,7 +9966,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B69">
         <v>-0.436</v>
@@ -9977,7 +9977,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B70">
         <v>0.629</v>
@@ -9988,7 +9988,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B71">
         <v>0.50600000000000001</v>
@@ -9999,7 +9999,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B72">
         <v>0.51100000000000001</v>
@@ -10010,7 +10010,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B73">
         <v>-0.38100000000000001</v>
@@ -10021,7 +10021,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B74">
         <v>-0.17799999999999999</v>
@@ -10032,7 +10032,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B75">
         <v>-0.34799999999999998</v>
@@ -10043,7 +10043,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B76">
         <v>-0.437</v>
@@ -10054,7 +10054,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B77">
         <v>-0.28499999999999998</v>
@@ -10065,7 +10065,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B78">
         <v>0.46</v>
@@ -10076,7 +10076,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B79">
         <v>0.73</v>
@@ -10087,7 +10087,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B80">
         <v>0.69199999999999995</v>
@@ -10098,7 +10098,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B81">
         <v>0.496</v>
@@ -10109,7 +10109,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B82">
         <v>-0.30299999999999999</v>
@@ -10120,7 +10120,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B83">
         <v>-0.40500000000000003</v>
@@ -10131,7 +10131,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B84">
         <v>-0.35299999999999998</v>
@@ -10142,7 +10142,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B85">
         <v>-0.42099999999999999</v>
@@ -10153,7 +10153,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B86">
         <v>-0.246</v>
@@ -10164,7 +10164,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B87">
         <v>-0.309</v>
@@ -10175,7 +10175,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B88">
         <v>-0.25600000000000001</v>
@@ -10186,7 +10186,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B89">
         <v>0.63300000000000001</v>
@@ -10197,7 +10197,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B90">
         <v>-0.23300000000000001</v>
@@ -10208,7 +10208,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B91">
         <v>0.69799999999999995</v>
@@ -10219,7 +10219,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B92">
         <v>0.33300000000000002</v>
@@ -10230,7 +10230,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B93">
         <v>-0.42899999999999999</v>
@@ -10241,7 +10241,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B94">
         <v>0.66200000000000003</v>
@@ -10252,7 +10252,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B95">
         <v>0.45300000000000001</v>
@@ -10263,7 +10263,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B96">
         <v>0.50800000000000001</v>
@@ -10274,7 +10274,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B97">
         <v>-0.36299999999999999</v>
@@ -10285,7 +10285,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B98">
         <v>0.46400000000000002</v>
@@ -10296,7 +10296,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B99">
         <v>0.48299999999999998</v>
@@ -10307,7 +10307,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B100">
         <v>0.39200000000000002</v>
@@ -10318,7 +10318,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B101">
         <v>0.23</v>
@@ -10329,7 +10329,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B102">
         <v>-0.438</v>
@@ -10340,7 +10340,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B103">
         <v>0.53900000000000003</v>
@@ -10351,7 +10351,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B104">
         <v>0.35499999999999998</v>
@@ -10362,7 +10362,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B105">
         <v>0.46600000000000003</v>
@@ -10373,7 +10373,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B106">
         <v>-0.186</v>
@@ -10384,7 +10384,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B107">
         <v>0.626</v>
@@ -10395,7 +10395,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B108">
         <v>-0.56699999999999995</v>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B109">
         <v>-0.42799999999999999</v>
@@ -10417,7 +10417,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B110">
         <v>-0.42899999999999999</v>
@@ -10428,7 +10428,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B111">
         <v>-0.44</v>
@@ -10439,7 +10439,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B112">
         <v>-0.48099999999999998</v>
@@ -10450,7 +10450,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B113">
         <v>0.27700000000000002</v>
@@ -10461,7 +10461,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B114">
         <v>0.192</v>
@@ -10472,7 +10472,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B115">
         <v>0.245</v>
@@ -10483,7 +10483,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B116">
         <v>0.55100000000000005</v>
@@ -10494,7 +10494,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B117">
         <v>-0.28899999999999998</v>
@@ -10505,7 +10505,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B118">
         <v>0.67200000000000004</v>
@@ -10516,7 +10516,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B119">
         <v>-0.47599999999999998</v>
@@ -10527,7 +10527,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B120">
         <v>-0.58699999999999997</v>
@@ -10538,7 +10538,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B121">
         <v>0.64200000000000002</v>
@@ -10549,7 +10549,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B122">
         <v>0.65800000000000003</v>
@@ -10560,7 +10560,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B123">
         <v>0.6</v>
@@ -10571,7 +10571,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B124">
         <v>0.66300000000000003</v>
@@ -10582,7 +10582,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B125">
         <v>0.71399999999999997</v>
@@ -10593,7 +10593,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B126">
         <v>0.67100000000000004</v>
@@ -10604,7 +10604,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B127">
         <v>0.61599999999999999</v>
@@ -10615,7 +10615,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B128">
         <v>-0.30599999999999999</v>
@@ -10626,7 +10626,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B129">
         <v>0.75600000000000001</v>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B130">
         <v>-0.36299999999999999</v>
@@ -10648,7 +10648,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B131">
         <v>-0.377</v>
@@ -10659,7 +10659,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B132">
         <v>-0.28000000000000003</v>
@@ -10670,7 +10670,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B133">
         <v>0.72899999999999998</v>
@@ -10681,7 +10681,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B134">
         <v>0.29399999999999998</v>
@@ -10692,7 +10692,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B135">
         <v>-0.48099999999999998</v>
@@ -10703,7 +10703,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B136">
         <v>-0.44800000000000001</v>
@@ -10714,7 +10714,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B137">
         <v>-0.24099999999999999</v>
@@ -10725,7 +10725,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B138">
         <v>-0.48499999999999999</v>
@@ -10736,7 +10736,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B139">
         <v>-0.31900000000000001</v>
@@ -10747,7 +10747,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B140">
         <v>0.438</v>
@@ -10758,7 +10758,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B141">
         <v>-0.49199999999999999</v>
@@ -10769,7 +10769,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B142">
         <v>-0.29199999999999998</v>
@@ -10780,7 +10780,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B143">
         <v>-0.60199999999999998</v>
@@ -10791,7 +10791,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B144">
         <v>0.17599999999999999</v>
@@ -10802,7 +10802,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B145">
         <v>-0.219</v>
@@ -10813,7 +10813,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B146">
         <v>0.28100000000000003</v>
@@ -10824,7 +10824,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B147">
         <v>0.29499999999999998</v>
@@ -10835,7 +10835,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B148">
         <v>0.498</v>
@@ -10846,7 +10846,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B149">
         <v>0.371</v>
@@ -10857,7 +10857,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B150">
         <v>0.27</v>
@@ -10868,7 +10868,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B151">
         <v>-0.24099999999999999</v>
@@ -10879,7 +10879,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B152">
         <v>0.311</v>
@@ -10890,7 +10890,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B153">
         <v>0.42799999999999999</v>
@@ -10901,7 +10901,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B154">
         <v>-0.40400000000000003</v>
@@ -10912,7 +10912,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B155">
         <v>0.42899999999999999</v>
@@ -10923,7 +10923,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B156">
         <v>0.74199999999999999</v>
@@ -10934,7 +10934,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B157">
         <v>0.59299999999999997</v>
@@ -10945,7 +10945,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B158">
         <v>0.37</v>
@@ -10956,7 +10956,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B159">
         <v>0.55500000000000005</v>
@@ -10967,7 +10967,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B160">
         <v>-0.443</v>
@@ -10978,7 +10978,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B161">
         <v>0.39300000000000002</v>
@@ -10989,7 +10989,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B162">
         <v>0.49099999999999999</v>
@@ -11000,7 +11000,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B163">
         <v>0.51600000000000001</v>
@@ -11011,7 +11011,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B164">
         <v>-0.28199999999999997</v>
@@ -11022,7 +11022,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B165">
         <v>0.441</v>
@@ -11033,7 +11033,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B166">
         <v>0.62</v>
@@ -11044,7 +11044,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B167">
         <v>0.74399999999999999</v>
@@ -11055,7 +11055,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B168">
         <v>0.52200000000000002</v>
@@ -11066,7 +11066,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B169">
         <v>0.57199999999999995</v>
@@ -11077,7 +11077,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B170">
         <v>0.66700000000000004</v>
@@ -11088,7 +11088,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B171">
         <v>0.30299999999999999</v>
@@ -11099,7 +11099,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B172">
         <v>0.54100000000000004</v>
@@ -11110,7 +11110,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B173">
         <v>0.39600000000000002</v>
@@ -11121,7 +11121,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B174">
         <v>-0.38300000000000001</v>
@@ -11132,7 +11132,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B175">
         <v>0.60399999999999998</v>
@@ -11143,7 +11143,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B176">
         <v>0.33200000000000002</v>
@@ -11154,7 +11154,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B177">
         <v>0.47</v>
@@ -11165,7 +11165,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B178">
         <v>0.55900000000000005</v>
@@ -11176,7 +11176,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B179">
         <v>-0.47199999999999998</v>
@@ -11187,7 +11187,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B180">
         <v>0.39200000000000002</v>
@@ -11198,7 +11198,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B181">
         <v>0.59</v>
@@ -11209,7 +11209,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B182">
         <v>0.48699999999999999</v>
@@ -11220,7 +11220,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B183">
         <v>0.49</v>
@@ -11231,7 +11231,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B184">
         <v>-0.42899999999999999</v>
@@ -11242,7 +11242,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B185">
         <v>0.36699999999999999</v>
@@ -11253,7 +11253,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B186">
         <v>0.59699999999999998</v>
@@ -11264,7 +11264,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B187">
         <v>-0.30299999999999999</v>
@@ -11275,7 +11275,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B188">
         <v>-0.46100000000000002</v>
@@ -11286,7 +11286,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B189">
         <v>-0.56200000000000006</v>
@@ -11297,7 +11297,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B190">
         <v>-0.38</v>
@@ -11308,7 +11308,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B191">
         <v>-0.27600000000000002</v>
@@ -11319,7 +11319,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B192">
         <v>-0.439</v>
@@ -11330,7 +11330,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B193">
         <v>-0.40300000000000002</v>
@@ -11341,7 +11341,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B194">
         <v>-0.41699999999999998</v>
@@ -11352,7 +11352,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B195">
         <v>-0.53400000000000003</v>
@@ -11363,7 +11363,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B196">
         <v>-0.40899999999999997</v>
@@ -11374,7 +11374,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B197">
         <v>-0.44800000000000001</v>
@@ -11385,7 +11385,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B198">
         <v>-0.47899999999999998</v>
@@ -11396,7 +11396,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B199">
         <v>-0.34</v>
@@ -11407,7 +11407,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B200">
         <v>-0.57999999999999996</v>
@@ -11418,7 +11418,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B201">
         <v>-0.35199999999999998</v>
@@ -11429,7 +11429,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B202">
         <v>-0.33500000000000002</v>
@@ -11440,7 +11440,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B203">
         <v>0.49099999999999999</v>
@@ -11451,7 +11451,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B204">
         <v>0.64</v>
@@ -11462,7 +11462,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B205">
         <v>0.64700000000000002</v>
@@ -11473,7 +11473,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B206">
         <v>0.42899999999999999</v>
@@ -11484,7 +11484,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B207">
         <v>-0.42099999999999999</v>
@@ -11495,7 +11495,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B208">
         <v>0.33700000000000002</v>
@@ -11506,7 +11506,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B209">
         <v>0.52800000000000002</v>
@@ -11517,7 +11517,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B210">
         <v>0.436</v>
@@ -11528,7 +11528,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B211">
         <v>-0.379</v>
@@ -11539,7 +11539,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B212">
         <v>0.34300000000000003</v>
@@ -11550,7 +11550,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B213">
         <v>0.372</v>
@@ -11561,7 +11561,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B214">
         <v>-0.46800000000000003</v>
@@ -11572,7 +11572,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B215">
         <v>-0.66</v>
@@ -11583,7 +11583,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B216">
         <v>-0.45700000000000002</v>
@@ -11594,7 +11594,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B217">
         <v>-0.28000000000000003</v>
@@ -11605,7 +11605,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B218">
         <v>0.49</v>
@@ -11616,7 +11616,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B219">
         <v>0.40400000000000003</v>
@@ -11627,7 +11627,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B220">
         <v>-0.42499999999999999</v>
@@ -11638,7 +11638,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B221">
         <v>-0.54100000000000004</v>
@@ -11649,7 +11649,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B222">
         <v>0.42099999999999999</v>
@@ -11660,7 +11660,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B223">
         <v>-0.14399999999999999</v>
@@ -11671,7 +11671,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B224">
         <v>-0.377</v>
@@ -11682,7 +11682,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B225">
         <v>0.53900000000000003</v>
@@ -11693,7 +11693,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B226">
         <v>-0.51900000000000002</v>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B227">
         <v>0.38</v>
@@ -11715,7 +11715,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B228">
         <v>0.5</v>
@@ -11726,7 +11726,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B229">
         <v>-0.49099999999999999</v>
@@ -11737,7 +11737,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B230">
         <v>0.44700000000000001</v>
@@ -11748,7 +11748,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B231">
         <v>0.44500000000000001</v>
@@ -11759,7 +11759,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B232">
         <v>0.504</v>
@@ -11770,7 +11770,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B233">
         <v>-0.45800000000000002</v>
@@ -11781,7 +11781,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B234">
         <v>0.42899999999999999</v>
@@ -11792,7 +11792,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B235">
         <v>0.57799999999999996</v>
@@ -11803,7 +11803,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B236">
         <v>0.61399999999999999</v>
@@ -11814,7 +11814,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B237">
         <v>0.40899999999999997</v>
@@ -11825,7 +11825,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B238">
         <v>0.29499999999999998</v>
@@ -11836,7 +11836,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B239">
         <v>-0.185</v>
@@ -11847,7 +11847,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B240">
         <v>0.50600000000000001</v>
@@ -11858,7 +11858,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B241">
         <v>-0.29599999999999999</v>
@@ -11869,7 +11869,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B242">
         <v>0.38600000000000001</v>
@@ -11880,7 +11880,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B243">
         <v>0.32400000000000001</v>
@@ -11891,7 +11891,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B244">
         <v>0.35299999999999998</v>
@@ -11902,7 +11902,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B245">
         <v>0.42699999999999999</v>
@@ -11913,7 +11913,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B246">
         <v>-0.25900000000000001</v>
@@ -11924,7 +11924,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B247">
         <v>-0.38</v>
@@ -11935,7 +11935,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B248">
         <v>0.2</v>
@@ -11946,7 +11946,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B249">
         <v>0.20899999999999999</v>
@@ -11957,7 +11957,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B250">
         <v>0.156</v>
@@ -11968,7 +11968,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B251">
         <v>0.68799999999999994</v>
@@ -11979,7 +11979,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B252">
         <v>-0.39700000000000002</v>
@@ -11990,7 +11990,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B253">
         <v>0.33800000000000002</v>
@@ -12001,7 +12001,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B254">
         <v>-0.40600000000000003</v>
@@ -12012,7 +12012,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B255">
         <v>-0.36799999999999999</v>
@@ -12023,7 +12023,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B256">
         <v>-0.504</v>
@@ -12034,7 +12034,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B257">
         <v>0.28000000000000003</v>
@@ -12045,7 +12045,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B258">
         <v>-0.52500000000000002</v>
@@ -12056,7 +12056,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B259">
         <v>-0.33900000000000002</v>
@@ -12067,7 +12067,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B260">
         <v>0.46899999999999997</v>
@@ -12078,7 +12078,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B261">
         <v>-0.38</v>
@@ -12089,7 +12089,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B262">
         <v>0.33100000000000002</v>
@@ -12100,7 +12100,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B263">
         <v>0.26</v>
@@ -12111,7 +12111,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B264">
         <v>-0.33400000000000002</v>
@@ -12122,7 +12122,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B265">
         <v>-0.27200000000000002</v>
@@ -12133,7 +12133,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B266">
         <v>-0.42299999999999999</v>
@@ -12144,7 +12144,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B267">
         <v>-0.38600000000000001</v>
@@ -12155,7 +12155,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B268">
         <v>-0.54600000000000004</v>
@@ -12166,7 +12166,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B269">
         <v>-0.49099999999999999</v>
@@ -12177,7 +12177,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B270">
         <v>-0.60499999999999998</v>
@@ -12188,7 +12188,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B271">
         <v>-0.50900000000000001</v>
@@ -12199,7 +12199,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B272">
         <v>0.218</v>
@@ -12210,7 +12210,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B273">
         <v>-0.38700000000000001</v>
@@ -12221,7 +12221,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B274">
         <v>-0.51400000000000001</v>
@@ -12232,7 +12232,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B275">
         <v>-0.40699999999999997</v>
@@ -12243,7 +12243,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B276">
         <v>-0.48899999999999999</v>
@@ -12254,7 +12254,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B277">
         <v>-0.41099999999999998</v>
@@ -12265,7 +12265,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B278">
         <v>-0.39</v>
@@ -12276,7 +12276,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B279">
         <v>-0.22500000000000001</v>
@@ -12287,7 +12287,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B280">
         <v>0.20300000000000001</v>
@@ -12298,7 +12298,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B281">
         <v>-0.42299999999999999</v>
@@ -12309,7 +12309,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B282">
         <v>0.20499999999999999</v>
@@ -12320,7 +12320,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B283">
         <v>0.215</v>
@@ -12331,7 +12331,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B284">
         <v>0.3</v>
@@ -12342,7 +12342,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B285">
         <v>0.19600000000000001</v>
@@ -12353,7 +12353,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B286">
         <v>-0.46500000000000002</v>
@@ -12364,7 +12364,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B287">
         <v>-0.34699999999999998</v>
@@ -12375,7 +12375,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B288">
         <v>0.36299999999999999</v>
@@ -12386,7 +12386,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B289">
         <v>-0.42099999999999999</v>
@@ -12397,7 +12397,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B290">
         <v>0.40600000000000003</v>
@@ -12408,7 +12408,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B291">
         <v>0.24299999999999999</v>
@@ -12419,7 +12419,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B292">
         <v>-0.33900000000000002</v>
@@ -12430,7 +12430,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B293">
         <v>0.65</v>
@@ -12441,7 +12441,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B294">
         <v>0.621</v>
@@ -12452,7 +12452,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B295">
         <v>0.61099999999999999</v>
@@ -12463,7 +12463,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B296">
         <v>0.68300000000000005</v>
@@ -12474,7 +12474,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B297">
         <v>0.55800000000000005</v>
@@ -12485,7 +12485,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B298">
         <v>0.58299999999999996</v>
@@ -12496,7 +12496,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B299">
         <v>0.622</v>
@@ -12507,7 +12507,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B300">
         <v>-0.47</v>
@@ -12518,7 +12518,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B301">
         <v>0.67100000000000004</v>
@@ -12529,7 +12529,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B302">
         <v>0.375</v>
@@ -12540,7 +12540,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B303">
         <v>0.58099999999999996</v>
@@ -12551,7 +12551,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B304">
         <v>0.57999999999999996</v>
@@ -12562,7 +12562,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B305">
         <v>-0.44900000000000001</v>
@@ -12573,7 +12573,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B306">
         <v>0.70099999999999996</v>
@@ -12584,7 +12584,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B307">
         <v>0.51500000000000001</v>
@@ -12595,7 +12595,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B308">
         <v>0.435</v>
@@ -12606,7 +12606,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B309">
         <v>0.44600000000000001</v>
@@ -12617,7 +12617,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B310">
         <v>0.73699999999999999</v>
@@ -12628,7 +12628,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B311">
         <v>-0.35099999999999998</v>
@@ -12639,7 +12639,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B312">
         <v>0.26600000000000001</v>
@@ -12650,7 +12650,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B313">
         <v>-0.58699999999999997</v>
@@ -12661,7 +12661,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B314">
         <v>0.38600000000000001</v>
@@ -12672,7 +12672,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B315">
         <v>-0.40899999999999997</v>
@@ -12683,7 +12683,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B316">
         <v>0.26</v>
@@ -12694,7 +12694,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B317">
         <v>0.30199999999999999</v>
@@ -12705,7 +12705,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B318">
         <v>0.372</v>
@@ -12716,7 +12716,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B319">
         <v>0.69499999999999995</v>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B320">
         <v>0.49</v>
@@ -12738,7 +12738,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B321">
         <v>0.36</v>
@@ -12749,7 +12749,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B322">
         <v>0.33700000000000002</v>
@@ -12760,7 +12760,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B323">
         <v>0.45200000000000001</v>
@@ -12771,7 +12771,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B324">
         <v>-0.39700000000000002</v>
@@ -12782,7 +12782,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B325">
         <v>0.33700000000000002</v>
@@ -12793,7 +12793,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B326">
         <v>-0.43</v>
@@ -12804,7 +12804,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B327">
         <v>-0.42899999999999999</v>
@@ -12815,7 +12815,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B328">
         <v>-0.19900000000000001</v>
@@ -12826,7 +12826,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B329">
         <v>-0.48399999999999999</v>
@@ -12837,7 +12837,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B330">
         <v>-0.47199999999999998</v>
@@ -12848,7 +12848,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B331">
         <v>-0.33100000000000002</v>
@@ -12859,7 +12859,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B332">
         <v>0.31900000000000001</v>
@@ -12870,7 +12870,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B333">
         <v>0.64700000000000002</v>
@@ -12881,7 +12881,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B334">
         <v>0.30399999999999999</v>
@@ -12892,7 +12892,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B335">
         <v>0.21</v>
@@ -12903,7 +12903,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B336">
         <v>0.217</v>
@@ -12914,7 +12914,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B337">
         <v>0.20200000000000001</v>
@@ -12925,7 +12925,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B338">
         <v>0.377</v>
@@ -12936,7 +12936,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B339">
         <v>0.35699999999999998</v>
@@ -12947,7 +12947,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B340">
         <v>0.27400000000000002</v>
@@ -12958,7 +12958,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B341">
         <v>0.499</v>
@@ -12969,7 +12969,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B342">
         <v>-0.36199999999999999</v>
@@ -12980,7 +12980,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B343">
         <v>-0.32500000000000001</v>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B344">
         <v>0.23599999999999999</v>
@@ -13002,7 +13002,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B345">
         <v>0.53800000000000003</v>
@@ -13013,7 +13013,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B346">
         <v>-0.43</v>
@@ -13024,7 +13024,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B347">
         <v>0.25700000000000001</v>
@@ -13035,7 +13035,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B348">
         <v>-0.39600000000000002</v>
@@ -13046,7 +13046,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B349">
         <v>-0.375</v>
@@ -13057,7 +13057,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B350">
         <v>0.64200000000000002</v>
@@ -13068,7 +13068,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B351">
         <v>0.54500000000000004</v>
@@ -13079,7 +13079,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B352">
         <v>0.74199999999999999</v>
@@ -13090,7 +13090,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B353">
         <v>0.67200000000000004</v>
@@ -13101,7 +13101,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B354">
         <v>0.754</v>
@@ -13112,7 +13112,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B355">
         <v>-0.46600000000000003</v>
@@ -13123,7 +13123,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B356">
         <v>0.58399999999999996</v>
@@ -13134,7 +13134,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B357">
         <v>0.38100000000000001</v>
@@ -13145,7 +13145,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B358">
         <v>0.49099999999999999</v>
@@ -13156,7 +13156,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B359">
         <v>0.59899999999999998</v>
@@ -13167,7 +13167,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B360">
         <v>0.48899999999999999</v>
@@ -13178,7 +13178,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B361">
         <v>0.59299999999999997</v>
@@ -13189,7 +13189,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B362">
         <v>-0.16200000000000001</v>
@@ -13200,7 +13200,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B363">
         <v>0.58899999999999997</v>
@@ -13211,7 +13211,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B364">
         <v>0.61199999999999999</v>
@@ -13222,7 +13222,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B365">
         <v>0.52600000000000002</v>
@@ -13233,7 +13233,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B366">
         <v>-0.40100000000000002</v>
@@ -13244,7 +13244,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B367">
         <v>0.59699999999999998</v>
@@ -13255,7 +13255,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B368">
         <v>0.59199999999999997</v>
@@ -13266,7 +13266,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B369">
         <v>0.60899999999999999</v>
@@ -13277,7 +13277,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B370">
         <v>0.74</v>
@@ -13288,7 +13288,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B371">
         <v>0.70599999999999996</v>
@@ -13299,7 +13299,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B372">
         <v>0.52900000000000003</v>
@@ -13310,7 +13310,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B373">
         <v>0.501</v>
@@ -13321,7 +13321,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B374">
         <v>0.51800000000000002</v>
@@ -13332,7 +13332,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B375">
         <v>-0.44800000000000001</v>
@@ -13343,7 +13343,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B376">
         <v>0.443</v>
@@ -13354,7 +13354,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B377">
         <v>0.59099999999999997</v>
@@ -13365,7 +13365,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B378">
         <v>0.38700000000000001</v>
@@ -13376,7 +13376,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B379">
         <v>0.52900000000000003</v>
@@ -13387,7 +13387,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B380">
         <v>0.71399999999999997</v>
@@ -13398,7 +13398,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B381">
         <v>-0.34</v>
@@ -13409,7 +13409,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B382">
         <v>-0.33400000000000002</v>
@@ -13420,7 +13420,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B383">
         <v>0.61899999999999999</v>
@@ -13431,7 +13431,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B384">
         <v>-0.45900000000000002</v>
@@ -13442,7 +13442,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B385">
         <v>0.628</v>
@@ -13453,7 +13453,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B386">
         <v>-0.41</v>
@@ -13464,7 +13464,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B387">
         <v>0.42299999999999999</v>
@@ -13475,7 +13475,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B388">
         <v>0.53700000000000003</v>
@@ -13486,7 +13486,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B389">
         <v>0.41199999999999998</v>
@@ -13497,7 +13497,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B390">
         <v>0.60099999999999998</v>
@@ -13508,7 +13508,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B391">
         <v>0.60899999999999999</v>
@@ -13519,7 +13519,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B392">
         <v>0.56499999999999995</v>
@@ -13530,7 +13530,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B393">
         <v>0.54300000000000004</v>
@@ -13541,7 +13541,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B394">
         <v>-0.23799999999999999</v>
@@ -13552,7 +13552,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B395">
         <v>-0.33200000000000002</v>
@@ -13563,7 +13563,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B396">
         <v>-0.49</v>
@@ -13574,7 +13574,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B397">
         <v>0.46600000000000003</v>
@@ -13585,7 +13585,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B398">
         <v>0.58499999999999996</v>
@@ -13596,7 +13596,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B399">
         <v>-0.41399999999999998</v>
@@ -13607,7 +13607,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B400">
         <v>-0.316</v>
@@ -13618,7 +13618,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B401">
         <v>-0.40200000000000002</v>
@@ -13629,7 +13629,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B402">
         <v>0.71599999999999997</v>
@@ -13640,7 +13640,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B403">
         <v>0.52900000000000003</v>
@@ -13651,7 +13651,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B404">
         <v>0.51700000000000002</v>
@@ -13662,7 +13662,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B405">
         <v>0.64800000000000002</v>
@@ -13673,7 +13673,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B406">
         <v>0.58299999999999996</v>
@@ -13684,7 +13684,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B407">
         <v>-0.41699999999999998</v>
@@ -13695,7 +13695,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B408">
         <v>0.40100000000000002</v>
@@ -13706,7 +13706,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B409">
         <v>0.40500000000000003</v>
@@ -13717,7 +13717,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B410">
         <v>-0.45700000000000002</v>
@@ -13728,7 +13728,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B411">
         <v>0.40699999999999997</v>
@@ -13739,7 +13739,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B412">
         <v>0.56799999999999995</v>
@@ -13750,7 +13750,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B413">
         <v>0.49</v>
@@ -13761,7 +13761,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B414">
         <v>0.82799999999999996</v>
@@ -13772,7 +13772,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B415">
         <v>-0.36499999999999999</v>
@@ -13783,7 +13783,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B416">
         <v>0.53100000000000003</v>
@@ -13794,7 +13794,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B417">
         <v>0.27100000000000002</v>
@@ -13805,7 +13805,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B418">
         <v>-0.307</v>
@@ -13816,7 +13816,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B419">
         <v>-0.27400000000000002</v>
@@ -13827,7 +13827,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B420">
         <v>-0.372</v>
@@ -13838,7 +13838,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B421">
         <v>0.377</v>
@@ -13849,7 +13849,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B422">
         <v>0.36699999999999999</v>
@@ -13860,7 +13860,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B423">
         <v>0.42299999999999999</v>
@@ -13871,7 +13871,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B424">
         <v>-0.30099999999999999</v>
@@ -13882,7 +13882,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B425">
         <v>-0.66600000000000004</v>
@@ -13893,7 +13893,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B426">
         <v>0.214</v>
@@ -13904,7 +13904,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B427">
         <v>-0.28100000000000003</v>
@@ -13915,7 +13915,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B428">
         <v>-0.32500000000000001</v>
@@ -13926,7 +13926,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B429">
         <v>0.29099999999999998</v>
@@ -13937,7 +13937,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B430">
         <v>0.56299999999999994</v>
@@ -13948,7 +13948,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B431">
         <v>0.307</v>
@@ -13959,7 +13959,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B432">
         <v>0.55500000000000005</v>
@@ -13970,7 +13970,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B433">
         <v>-0.57199999999999995</v>
@@ -13981,7 +13981,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B434">
         <v>-0.26900000000000002</v>
@@ -13992,7 +13992,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B435">
         <v>-0.52800000000000002</v>
@@ -14003,7 +14003,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B436">
         <v>0.64600000000000002</v>
@@ -14014,7 +14014,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B437">
         <v>0.59</v>
@@ -14025,7 +14025,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B438">
         <v>0.51300000000000001</v>
@@ -14036,7 +14036,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B439">
         <v>0.60299999999999998</v>
@@ -14047,7 +14047,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B440">
         <v>0.67500000000000004</v>
@@ -14058,7 +14058,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B441">
         <v>0.55100000000000005</v>
@@ -14069,7 +14069,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B442">
         <v>0.437</v>
@@ -14080,7 +14080,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B443">
         <v>0.20699999999999999</v>
@@ -14091,7 +14091,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B444">
         <v>0.46400000000000002</v>
@@ -14102,7 +14102,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B445">
         <v>0.82899999999999996</v>
@@ -14113,7 +14113,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B446">
         <v>0.38200000000000001</v>
@@ -14124,7 +14124,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B447">
         <v>0.61299999999999999</v>
@@ -14135,7 +14135,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B448">
         <v>0.39900000000000002</v>
@@ -14146,7 +14146,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B449">
         <v>-0.45</v>
@@ -14157,7 +14157,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B450">
         <v>-0.26300000000000001</v>
@@ -14168,7 +14168,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B451">
         <v>0.44800000000000001</v>
@@ -14179,7 +14179,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B452">
         <v>-0.21099999999999999</v>
@@ -14190,7 +14190,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B453">
         <v>-0.374</v>
@@ -14201,7 +14201,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B454">
         <v>-0.313</v>
@@ -14212,7 +14212,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B455">
         <v>-0.30199999999999999</v>
@@ -14223,7 +14223,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B456">
         <v>-0.17399999999999999</v>
@@ -14234,7 +14234,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B457">
         <v>0.57699999999999996</v>
@@ -14245,7 +14245,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B458">
         <v>-0.189</v>
@@ -14256,7 +14256,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B459">
         <v>0.67800000000000005</v>
@@ -14267,7 +14267,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B460">
         <v>0.40300000000000002</v>
@@ -14278,7 +14278,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B461">
         <v>-0.51100000000000001</v>
@@ -14289,7 +14289,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B462">
         <v>-0.439</v>
@@ -14300,7 +14300,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B463">
         <v>0.63700000000000001</v>
@@ -14311,7 +14311,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B464">
         <v>0.50900000000000001</v>
@@ -14322,7 +14322,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B465">
         <v>-0.36599999999999999</v>
@@ -14333,7 +14333,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B466">
         <v>0.27400000000000002</v>
@@ -14344,7 +14344,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B467">
         <v>0.375</v>
@@ -14355,7 +14355,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B468">
         <v>-0.11899999999999999</v>
@@ -14366,7 +14366,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B469">
         <v>0.34</v>
@@ -14377,7 +14377,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B470">
         <v>0.502</v>
@@ -14388,7 +14388,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B471">
         <v>0.40100000000000002</v>
@@ -14399,7 +14399,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B472">
         <v>0.41499999999999998</v>
@@ -14410,7 +14410,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B473">
         <v>0.86599999999999999</v>
@@ -14421,7 +14421,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B474">
         <v>0.40400000000000003</v>
@@ -14432,7 +14432,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B475">
         <v>0.495</v>
@@ -14443,7 +14443,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B476">
         <v>0.44400000000000001</v>
@@ -14454,7 +14454,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B477">
         <v>0.106</v>
@@ -14465,7 +14465,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B478">
         <v>-0.16800000000000001</v>
@@ -14476,7 +14476,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B479">
         <v>-0.37</v>
@@ -14487,7 +14487,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B480">
         <v>-0.33</v>
@@ -14498,7 +14498,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B481">
         <v>-0.70899999999999996</v>
@@ -14509,7 +14509,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B482">
         <v>-0.498</v>
@@ -14520,7 +14520,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B483">
         <v>-0.32800000000000001</v>
@@ -14531,7 +14531,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B484">
         <v>-0.23300000000000001</v>
@@ -14542,7 +14542,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B485">
         <v>-0.23699999999999999</v>
@@ -14553,7 +14553,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B486">
         <v>-0.439</v>
@@ -14564,7 +14564,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B487">
         <v>0.28399999999999997</v>
@@ -14575,7 +14575,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B488">
         <v>0.374</v>
@@ -14586,7 +14586,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B489">
         <v>-0.14299999999999999</v>
@@ -14597,7 +14597,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B490">
         <v>0.42799999999999999</v>
@@ -14608,7 +14608,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B491">
         <v>0.52</v>
@@ -14619,7 +14619,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B492">
         <v>-0.20499999999999999</v>
@@ -14630,7 +14630,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B493">
         <v>0.83299999999999996</v>
@@ -14641,7 +14641,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B494">
         <v>0.46200000000000002</v>
@@ -14652,7 +14652,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B495">
         <v>0.45200000000000001</v>
@@ -14663,7 +14663,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B496">
         <v>-0.27600000000000002</v>
@@ -14674,7 +14674,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B497">
         <v>0.35099999999999998</v>
@@ -14685,7 +14685,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B498">
         <v>-0.28299999999999997</v>
@@ -14696,7 +14696,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B499">
         <v>-0.36199999999999999</v>
@@ -14707,7 +14707,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B500">
         <v>-0.498</v>
@@ -14718,7 +14718,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B501">
         <v>-0.28000000000000003</v>
@@ -14729,7 +14729,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B502">
         <v>-0.45800000000000002</v>
@@ -14740,7 +14740,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B503">
         <v>-0.30499999999999999</v>
@@ -14751,7 +14751,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B504">
         <v>-0.35</v>
@@ -14762,7 +14762,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B505">
         <v>0.45300000000000001</v>
@@ -14773,7 +14773,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B506">
         <v>0.441</v>
@@ -14784,7 +14784,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B507">
         <v>-0.15</v>
@@ -14795,7 +14795,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B508">
         <v>0.33400000000000002</v>
@@ -14806,7 +14806,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B509">
         <v>-0.443</v>
@@ -14817,7 +14817,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B510">
         <v>0.37</v>
@@ -14828,7 +14828,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B511">
         <v>0.55200000000000005</v>
@@ -14839,7 +14839,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B512">
         <v>0.56200000000000006</v>
@@ -14850,7 +14850,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B513">
         <v>-0.438</v>
@@ -14861,7 +14861,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B514">
         <v>-0.313</v>
@@ -14872,7 +14872,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B515">
         <v>-0.29799999999999999</v>
@@ -14883,7 +14883,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B516">
         <v>0.623</v>
@@ -14894,7 +14894,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B517">
         <v>-0.42899999999999999</v>
@@ -14905,7 +14905,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B518">
         <v>-0.39</v>
@@ -14916,7 +14916,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B519">
         <v>0.66800000000000004</v>
@@ -14927,7 +14927,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B520">
         <v>0.40899999999999997</v>
@@ -14938,7 +14938,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B521">
         <v>0.40799999999999997</v>
@@ -14949,7 +14949,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B522">
         <v>0.38200000000000001</v>
@@ -14960,7 +14960,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B523">
         <v>0.39</v>
@@ -14971,7 +14971,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B524">
         <v>0.32100000000000001</v>
@@ -14982,7 +14982,7 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B525">
         <v>0.499</v>
@@ -14993,7 +14993,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B526">
         <v>0.85799999999999998</v>
@@ -15004,7 +15004,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B527">
         <v>0.86099999999999999</v>
@@ -15015,7 +15015,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B528">
         <v>0.38300000000000001</v>
@@ -15026,7 +15026,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B529">
         <v>-0.50900000000000001</v>
@@ -15037,7 +15037,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B530">
         <v>-0.375</v>
@@ -15048,7 +15048,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B531">
         <v>-0.22700000000000001</v>
@@ -15059,7 +15059,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B532">
         <v>-0.20300000000000001</v>
@@ -15070,7 +15070,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B533">
         <v>-0.28799999999999998</v>
@@ -15081,7 +15081,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B534">
         <v>-0.34200000000000003</v>
@@ -15092,7 +15092,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B535">
         <v>-0.06</v>
@@ -15103,7 +15103,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B536">
         <v>0.255</v>
@@ -15114,7 +15114,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B537">
         <v>0.58899999999999997</v>
@@ -15125,7 +15125,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B538">
         <v>-0.55000000000000004</v>
@@ -15136,7 +15136,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B539">
         <v>0.54100000000000004</v>
@@ -15147,7 +15147,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B540">
         <v>0.53</v>
